--- a/2022_plan & monthp & weekp.xlsx
+++ b/2022_plan & monthp & weekp.xlsx
@@ -106,7 +106,7 @@
     <t>对行业发展有一个认识</t>
   </si>
   <si>
-    <t>git/linux/shell等</t>
+    <t>git/linux/shell/mysql等</t>
   </si>
   <si>
     <t>能说</t>
@@ -163,10 +163,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -178,6 +178,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -188,6 +195,91 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,60 +291,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -261,40 +299,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -305,21 +320,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -330,6 +330,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -342,7 +354,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,13 +444,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,61 +468,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,79 +498,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,11 +746,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,6 +767,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,9 +803,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -804,30 +828,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -846,152 +846,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1040,9 +1040,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1050,30 +1047,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1415,8 +1388,8 @@
   <sheetPr/>
   <dimension ref="B1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1445,6 +1418,7 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" ht="18.35"/>
     <row r="6" ht="30.6" customHeight="1" spans="2:22">
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -1468,7 +1442,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
-      <c r="V6" s="19"/>
+      <c r="V6" s="18"/>
     </row>
     <row r="7" ht="30.6" customHeight="1" spans="2:22">
       <c r="B7" s="1" t="s">
@@ -1495,7 +1469,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
-      <c r="V7" s="19"/>
+      <c r="V7" s="18"/>
     </row>
     <row r="8" ht="40" customHeight="1" spans="2:22">
       <c r="B8" s="3" t="s">
@@ -1507,32 +1481,32 @@
         <v>7</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="19"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="19"/>
+      <c r="J8" s="18"/>
       <c r="K8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L8" s="2"/>
-      <c r="M8" s="19"/>
+      <c r="M8" s="18"/>
       <c r="N8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="2"/>
-      <c r="P8" s="19"/>
+      <c r="P8" s="18"/>
       <c r="Q8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="R8" s="2"/>
-      <c r="S8" s="19"/>
+      <c r="S8" s="18"/>
       <c r="T8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="U8" s="2"/>
-      <c r="V8" s="19"/>
+      <c r="V8" s="18"/>
     </row>
     <row r="9" ht="38" customHeight="1" spans="2:22">
       <c r="B9" s="6" t="s">
@@ -1540,36 +1514,36 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="20" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="20" t="s">
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="21"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="20" t="s">
+      <c r="L9" s="7"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="21"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="32" t="s">
+      <c r="O9" s="7"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="R9" s="21"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="20" t="s">
+      <c r="R9" s="7"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U9" s="21"/>
-      <c r="V9" s="22"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="8"/>
     </row>
     <row r="10" ht="39" customHeight="1" spans="2:22">
       <c r="B10" s="9" t="s">
@@ -1577,36 +1551,36 @@
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="23" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="23" t="s">
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="23" t="s">
+      <c r="L10" s="10"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O10" s="16"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="23" t="s">
+      <c r="O10" s="10"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="R10" s="16"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="23" t="s">
+      <c r="R10" s="10"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="U10" s="16"/>
-      <c r="V10" s="24"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="11"/>
     </row>
     <row r="11" ht="48" customHeight="1" spans="2:22">
       <c r="B11" s="12" t="s">
@@ -1614,190 +1588,190 @@
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="25" t="s">
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="25" t="s">
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="25" t="s">
+      <c r="L11" s="13"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="O11" s="26"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="33" t="s">
+      <c r="O11" s="13"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="R11" s="26"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="25" t="s">
+      <c r="R11" s="13"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="U11" s="26"/>
-      <c r="V11" s="27"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="14"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="2:11">
       <c r="B13" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="29" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="20" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1" spans="2:11">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="30"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="21"/>
     </row>
     <row r="15" ht="30" customHeight="1" spans="2:11">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="30"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="21"/>
     </row>
     <row r="16" ht="30" customHeight="1" spans="2:11">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="30"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="21"/>
     </row>
     <row r="17" ht="30" customHeight="1" spans="2:11">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="30"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="21"/>
     </row>
     <row r="18" ht="30" customHeight="1" spans="2:11">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="30"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="21"/>
     </row>
     <row r="20" ht="30" customHeight="1" spans="2:8">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29" t="s">
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" ht="30" customHeight="1" spans="2:8">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="30"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="21"/>
     </row>
     <row r="22" ht="30" customHeight="1" spans="2:8">
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="30"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="21"/>
     </row>
     <row r="23" ht="30" customHeight="1" spans="2:8">
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="30"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="21"/>
     </row>
     <row r="24" ht="30" customHeight="1" spans="2:8">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="30"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="21"/>
     </row>
     <row r="25" customFormat="1" ht="30" customHeight="1" spans="2:8">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="30"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="43">

--- a/2022_plan & monthp & weekp.xlsx
+++ b/2022_plan & monthp & weekp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12240"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
   <si>
     <t>2024年计划：成为资深测试专家</t>
   </si>
@@ -143,19 +143,56 @@
     <t>1/8-1/9计划</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>1.下周要考核的内容进行学习 周六周日各看一遍</t>
   </si>
   <si>
+    <t>✅</t>
+  </si>
+  <si>
+    <t>看了一遍，没记住</t>
+  </si>
+  <si>
     <t>2.can培训马上要开始了赶紧把培训要求的内容掌握了</t>
   </si>
   <si>
+    <t>了解了一点内容</t>
+  </si>
+  <si>
     <t>3.Excel的index函数学习</t>
   </si>
   <si>
+    <t>❎</t>
+  </si>
+  <si>
     <t>4.python与Excel脚本编写</t>
   </si>
   <si>
     <t>5.英语：每天阅读一个小时</t>
+  </si>
+  <si>
+    <t>1/10-1/16计划</t>
+  </si>
+  <si>
+    <t>✅ or❎</t>
+  </si>
+  <si>
+    <t>1.ASPICE</t>
+  </si>
+  <si>
+    <t>2.CAN/LIN/以太网学习够6小时</t>
+  </si>
+  <si>
+    <t>5.英语：每天额外接触0.5小时，周末每天1h</t>
+  </si>
+  <si>
+    <t>❎ ✅</t>
+  </si>
+  <si>
+    <t>周一没学，
+周二听了一篇听力</t>
   </si>
 </sst>
 </file>
@@ -163,12 +200,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -177,10 +214,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="6"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -198,9 +235,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,14 +328,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -230,23 +335,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,7 +352,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,60 +364,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -330,187 +374,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,6 +623,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -704,19 +761,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -744,20 +788,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,6 +828,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -803,41 +859,29 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -846,152 +890,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1040,14 +1084,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1055,69 +1099,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1384,23 +1452,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:V25"/>
+  <dimension ref="B1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:M11"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.07142857142857" customWidth="1"/>
-    <col min="2" max="2" width="11.0089285714286" customWidth="1"/>
-    <col min="5" max="5" width="9.96428571428571" customWidth="1"/>
+    <col min="1" max="1" width="2.075" customWidth="1"/>
+    <col min="2" max="2" width="11.0083333333333" customWidth="1"/>
+    <col min="5" max="5" width="9.96666666666667" customWidth="1"/>
     <col min="6" max="6" width="10.125" customWidth="1"/>
-    <col min="9" max="9" width="9.22321428571429" customWidth="1"/>
-    <col min="10" max="10" width="12.1964285714286" customWidth="1"/>
-    <col min="19" max="19" width="10.8571428571429" customWidth="1"/>
+    <col min="9" max="9" width="9.225" customWidth="1"/>
+    <col min="10" max="10" width="12.2" customWidth="1"/>
+    <col min="19" max="19" width="10.8583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
@@ -1418,7 +1486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" ht="18.35"/>
+    <row r="5" ht="15"/>
     <row r="6" ht="30.6" customHeight="1" spans="2:22">
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -1442,7 +1510,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
-      <c r="V6" s="18"/>
+      <c r="V6" s="6"/>
     </row>
     <row r="7" ht="30.6" customHeight="1" spans="2:22">
       <c r="B7" s="1" t="s">
@@ -1469,7 +1537,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
-      <c r="V7" s="18"/>
+      <c r="V7" s="6"/>
     </row>
     <row r="8" ht="40" customHeight="1" spans="2:22">
       <c r="B8" s="3" t="s">
@@ -1481,300 +1549,402 @@
         <v>7</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="18"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="18"/>
+      <c r="J8" s="6"/>
       <c r="K8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L8" s="2"/>
-      <c r="M8" s="18"/>
+      <c r="M8" s="6"/>
       <c r="N8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="2"/>
-      <c r="P8" s="18"/>
+      <c r="P8" s="6"/>
       <c r="Q8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="R8" s="2"/>
-      <c r="S8" s="18"/>
+      <c r="S8" s="6"/>
       <c r="T8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="U8" s="2"/>
-      <c r="V8" s="18"/>
+      <c r="V8" s="6"/>
     </row>
     <row r="9" ht="38" customHeight="1" spans="2:22">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="6" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="6" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="6" t="s">
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="6" t="s">
+      <c r="L9" s="8"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="23" t="s">
+      <c r="O9" s="8"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="R9" s="7"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="6" t="s">
+      <c r="R9" s="8"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U9" s="7"/>
-      <c r="V9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="9"/>
     </row>
     <row r="10" ht="39" customHeight="1" spans="2:22">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="9" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="9" t="s">
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="9" t="s">
+      <c r="L10" s="11"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="O10" s="10"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="9" t="s">
+      <c r="O10" s="11"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="R10" s="10"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="9" t="s">
+      <c r="R10" s="11"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="U10" s="10"/>
-      <c r="V10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="12"/>
     </row>
     <row r="11" ht="48" customHeight="1" spans="2:22">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="12" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="12" t="s">
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="12" t="s">
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="12" t="s">
+      <c r="L11" s="14"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="O11" s="13"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="24" t="s">
+      <c r="O11" s="14"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="R11" s="13"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="12" t="s">
+      <c r="R11" s="14"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="U11" s="13"/>
-      <c r="V11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="15"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="2:11">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="22"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="24"/>
       <c r="K13" s="20" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1" spans="2:11">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
       <c r="J14" s="19"/>
-      <c r="K14" s="21"/>
+      <c r="K14" s="25"/>
     </row>
     <row r="15" ht="30" customHeight="1" spans="2:11">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
       <c r="J15" s="19"/>
-      <c r="K15" s="21"/>
+      <c r="K15" s="25"/>
     </row>
     <row r="16" ht="30" customHeight="1" spans="2:11">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
       <c r="J16" s="19"/>
-      <c r="K16" s="21"/>
+      <c r="K16" s="25"/>
     </row>
     <row r="17" ht="30" customHeight="1" spans="2:11">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
       <c r="J17" s="19"/>
-      <c r="K17" s="21"/>
+      <c r="K17" s="25"/>
     </row>
     <row r="18" ht="30" customHeight="1" spans="2:11">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
       <c r="J18" s="19"/>
-      <c r="K18" s="21"/>
-    </row>
-    <row r="20" ht="30" customHeight="1" spans="2:8">
-      <c r="B20" s="16" t="s">
+      <c r="K18" s="25"/>
+    </row>
+    <row r="20" ht="30" customHeight="1" spans="2:9">
+      <c r="B20" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
       <c r="G20" s="19"/>
       <c r="H20" s="20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" ht="30" customHeight="1" spans="2:8">
-      <c r="B21" s="16" t="s">
+      <c r="I20" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
+    </row>
+    <row r="21" ht="30" customHeight="1" spans="2:9">
+      <c r="B21" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
       <c r="G21" s="19"/>
-      <c r="H21" s="21"/>
-    </row>
-    <row r="22" ht="30" customHeight="1" spans="2:8">
-      <c r="B22" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
+      <c r="H21" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" ht="30" customHeight="1" spans="2:9">
+      <c r="B22" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
       <c r="G22" s="19"/>
-      <c r="H22" s="21"/>
-    </row>
-    <row r="23" ht="30" customHeight="1" spans="2:8">
-      <c r="B23" s="16" t="s">
+      <c r="H22" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+      <c r="I22" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" ht="30" customHeight="1" spans="2:9">
+      <c r="B23" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
       <c r="G23" s="19"/>
-      <c r="H23" s="21"/>
-    </row>
-    <row r="24" ht="30" customHeight="1" spans="2:8">
-      <c r="B24" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
+      <c r="H23" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="28"/>
+    </row>
+    <row r="24" ht="30" customHeight="1" spans="2:9">
+      <c r="B24" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
       <c r="G24" s="19"/>
-      <c r="H24" s="21"/>
-    </row>
-    <row r="25" customFormat="1" ht="30" customHeight="1" spans="2:8">
-      <c r="B25" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="H24" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="28"/>
+    </row>
+    <row r="25" customFormat="1" ht="30" customHeight="1" spans="2:9">
+      <c r="B25" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
       <c r="G25" s="19"/>
-      <c r="H25" s="21"/>
+      <c r="H25" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" s="28"/>
+    </row>
+    <row r="28" customFormat="1" ht="30" customHeight="1" spans="2:9">
+      <c r="B28" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I28" s="29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" ht="30" customHeight="1" spans="2:9">
+      <c r="B29" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="28"/>
+    </row>
+    <row r="30" customFormat="1" ht="30" customHeight="1" spans="2:9">
+      <c r="B30" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="28"/>
+    </row>
+    <row r="31" customFormat="1" ht="30" customHeight="1" spans="2:9">
+      <c r="B31" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="28"/>
+    </row>
+    <row r="32" customFormat="1" ht="30" customHeight="1" spans="2:9">
+      <c r="B32" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="28"/>
+    </row>
+    <row r="33" customFormat="1" ht="57" customHeight="1" spans="2:9">
+      <c r="B33" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" s="30" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="49">
     <mergeCell ref="B6:V6"/>
     <mergeCell ref="B7:M7"/>
     <mergeCell ref="N7:V7"/>
@@ -1818,6 +1988,12 @@
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
